--- a/results/cv_results_OFFSIDES_rare.xlsx
+++ b/results/cv_results_OFFSIDES_rare.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.771844639660817</v>
+        <v>0.7023729714961697</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7707102059167819</v>
+        <v>0.6905059783699027</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6851843463582157</v>
+        <v>0.6204357465873745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08666029330260133</v>
+        <v>0.08193722490879522</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6762704281322083</v>
+        <v>0.6023704212281841</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09443977778457355</v>
+        <v>0.08813555714171865</v>
       </c>
     </row>
     <row r="9">
@@ -820,22 +820,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.5638831248923499</v>
+        <v>0.7927611127421633</v>
       </c>
       <c r="D14" t="n">
-        <v>0.58160876939745</v>
+        <v>0.8191109578405193</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5309998910371612</v>
+        <v>0.7314100722466361</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03288323385518876</v>
+        <v>0.06135104049552723</v>
       </c>
       <c r="G14" t="n">
-        <v>0.550421805394137</v>
+        <v>0.7601281996235922</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03118696400331302</v>
+        <v>0.05898275821692713</v>
       </c>
     </row>
     <row r="15">
@@ -980,22 +980,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.5086565051702814</v>
+        <v>0.6683182475138864</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5232440081828433</v>
+        <v>0.6119508776357765</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4664567676171746</v>
+        <v>0.6096829065017768</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04219973755310674</v>
+        <v>0.05863534101210956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4778392966394068</v>
+        <v>0.5598201627223116</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0454047115434366</v>
+        <v>0.05213071491346486</v>
       </c>
     </row>
     <row r="21">
@@ -1140,22 +1140,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.6506535116631219</v>
+        <v>0.8268124168835348</v>
       </c>
       <c r="D26" t="n">
-        <v>0.663755199457135</v>
+        <v>0.7488100896238241</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5660499587895126</v>
+        <v>0.719830119613959</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08460355287360931</v>
+        <v>0.1069822972695757</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5920140919999347</v>
+        <v>0.6663238199749831</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07174110745720028</v>
+        <v>0.08248626964884101</v>
       </c>
     </row>
     <row r="27">
@@ -1300,22 +1300,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6509243038212069</v>
+        <v>0.6543838177688026</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5867186807398586</v>
+        <v>0.5682085225851442</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5937411553842614</v>
+        <v>0.5940941367686006</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05718314843694546</v>
+        <v>0.06028968100020207</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5368779738407931</v>
+        <v>0.5158555952120859</v>
       </c>
       <c r="H32" t="n">
-        <v>0.04984070689906551</v>
+        <v>0.05235292737305833</v>
       </c>
     </row>
     <row r="33">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7754530044729495</v>
+        <v>0.7473425824256431</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7173806070367176</v>
+        <v>0.6791963917587438</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7244124518650771</v>
+        <v>0.6987332234092334</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05104055260787243</v>
+        <v>0.04860935901640971</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6685380303013183</v>
+        <v>0.6334408738776618</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04884257673539927</v>
+        <v>0.04575551788108199</v>
       </c>
     </row>
     <row r="39">
@@ -1620,22 +1620,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.8172699409463267</v>
+        <v>0.7960934794735226</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7249517574830058</v>
+        <v>0.6702043768642747</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7551084667855853</v>
+        <v>0.7362361013983876</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0621614741607413</v>
+        <v>0.05985737807513498</v>
       </c>
       <c r="G44" t="n">
-        <v>0.679718300503684</v>
+        <v>0.6291039905710297</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0452334569793218</v>
+        <v>0.04110038629324501</v>
       </c>
     </row>
     <row r="45">
